--- a/Testdata/TC_89.xlsx
+++ b/Testdata/TC_89.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>RTMAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb2QlCh1vIFISgoRSjJEOrbyYgx3h9JWy1l2L5L45jwEBly7QFHHQNI2rQMUDQI09kNauHbQ/pfAlJ2n/oWemdk7SYvrOoEN0DBgzrnNmTNnzvlmMUbvnQ9t6ZS4nuXQKyV1RSlJhBqOadGjK6XAH5TV1dJ7Oto6N4h9Fbt4SHwQlkCLehvnnnWldOz7ow1ZPjs7WzmrrDjukawpiirf2O10jWMyxGWLej6mBinFWublWiUdNc3hLvGxiX0sNK+U2t32SpNYRgtou5jiI+KuNALPosTztqhv+RbxmKZLsE+ard0PxcJ0bWV1RUXyFD2RbASWbQq5jKSgh3IwLelZQ6Jrilovq1pZWeupykalslGrrSjVtY8ixVgQdbDnd4l7ahmc0PXxcMTVVU1ZU5VKpVZD8kwhsJUEQEf7tnlATi2PmE1i216hiMjhBm4aPqy6WDAVJKd0Q0Ov78KOi0fHPcu3SVH1bcclBgTqtebeI2f7bhi/3qgD3N6x5frjFh4XtnXNI+7+iEWjmKqOWg71N23i+tdGsKnEhD0Hhu67AUHyHGai1LI8A35bNCCmPsC2l1bKMNF1xz3xRtgge3BgZWbjjNoONiGzfMvzLcNLDExx0FXXGYFJmL3h2OY2mA1dnMGITbcpxJjN23Cck7z1LBPxJODpAJs6xH4kPkVH3WPnbJ/a427Q9wzX6hOz1YikZ/IQO3qhdjPwfGcIXiQkJGgpyhj+wFHLk1GLGNYQ21dtiKKnV8BKhoA2A98ZWH7TsYMhjcOZo6LrsKIeOY9XGI/RPuwuZUF3aJtG8iLMM1lZhQPnLJ5zmsGDkCJvekaUZNOMvHALaNH2TXP4jrBVbls2dIL0XqSo2azoHhPiz0wJwUGs6G2z3qI3xnvBsA/nqw+H7JTP6iE54SPIU0h28EtXoF+U+d+eomzwv+BHzEZb1JwvFzERTJeaS1eBlyMhWJPdsDE9Aep1yz/e24zWMoODRATmyk/zEBzdkY3HnBxHKU1DbWrYgUlERWjTAU9R5pvY1LlsNEXqwBnXEabj3ngEFdizNnz4caUEPXnD813o+iXdcALqu2NWOpAcil6m4wV9yifA9sI6A5f8OgCwMd4OqNF0zMVnM0V0rlHLX9xDJ3BFPVxchUePVcbAaxFWY3jVX1jfKLImzy0kPqRk6FDLWDzaEGTmvfkaC/GiU5XSkOfkVosMcGADnPGhGR0lfSZHRpveSV4mTULXXDsqFToDix6gRcMcrhjQZhkiWjGcISPIANKud5GclmdYwSBb9KiD6VEA3Tg+gHl6XKhYI+m5mHpsOXHzzdWs2UIoOtACFOjilO8HPGLilDvARXJODvXIcOS42N6FwFjb4f6EyAKa9i72j8MRNAGbGFGQ5UQ11sp6Fjl+mRiv5mIZ7GSE9SRH5EJsLQKXJjIJDbFV7kL+2k1sW31XlJ+o583iwYYlMCoqVGxxBSFVtAdwN4E29QEZM8CaDEI6T1k1YogEZhVH7x5U61pNWVsFCMDGiK/4Q2wHRNo0TWJKFpXa1AR44AJMEPEIi/OrRdNCaDsqdXySTfAkS8kKQMs9sqCSTgvGnERBPyTYtccpQbGIjmOA3MuHd58/+Xzy5ReTO3+Z3PpOrECwUA/3bcKn7zXqdaVShXyJSYgFSeZY0AwMn9MODzkEjMcovLPwQXOr3dzpNHhdiImRuqihMrsOjZ0gGXaFy3wivjVytKNCRO9FdSYcZ7ipmqyz68kpyUqn+fMURSxePPvbi2d/n6sdBiwBF+p6vcrvf5dgD7jTrk7JxdiDXfsE2I8uldWyUitrWko4J4MO4G4M2D6OU9vUK6qyrmirihrXZDPO0VlCeVZoqYeP5JyeIDUFHohTID2OmDzNe8TzY7ZI/NRABPHiH795+ejTjFQY3ZCStQLO8b7NJpOjATe9d9CTuvvXDppbUm+ry/Ik4aXkhPFXCIezx6cnk1SUBtj+hUQo+x4ileAKUJKcgUSwcSyN4dylTl0m2WZRxUSvaTLv5Y7rBCOxIymFhDpDMq4dMzVmVBbO4/GcKjEJa4a48HXyr29nKYQLaSUITu98cCANaZyXnIYyHEFK8cNT+9m/nz+5ffHg0Q+3704+eTy593By78uLR/czpsIJ4xsxJDwcq/Qwzn+ofWEDyVHQ9S6P6olyM9UwQiK7Qlx1LOp7ulbht4dwhEBVZdb4v6g9hB7GDfPAAT1HQe9jb+vcD0+4vofkLAH8HGFon05y64oJopgnAf7hT19c/OHbiwePX97+enLnq8ndBy+e/fnlNw/F8bv49PHFvW/Ccp/vCNwXdpcTqE7iXwYMiR1LiTVj6ftbv5eo40uAIaSAl6bvb32WMsYc5WgjsQwYLXYk68KUaFqZ6UkpV2IfMnqxiujoTdbLKrFE2M2ckWUkk3xUZqbYAeSMn7V75cAjkgPw6OewkqxworyoXqgieuvVNUVTtZArvGFL6GMvFfod2+ljW4oY/OqdE8lovVohkeXz7XT2G5udREQ4se+acFNX2PcD9gNFGJH1lrYXjaJUS1GAC0jOCGz2tWRKbJoVW07VMzn87DAA5AThnH1Jz0igZuC6AgfR8Ht1NxgBuo0+Ts3n8y92KUC7J8BnGuIm43Yry4dxigsdMctmBM7nNSpkiXrV9tgXDoFP91hokiHwMl/5IBzhJ2kBuU4t2BKZ1Z0t13XcmcUn4URiuwCNoaLIScRjGb6nAkabyV5FhKjgvSk4zb5pp+D0jnPqSwfklFCAymWph8+lXzKkbMEyoRnCT7jLkVnoelHNtwNsX9z/z+TpHy/u/3PyyV/LL7767eTOw/9+9/nzJ18/f/pUUJf4+03h7/X6YvhbVX8a/K2uLYC/hdASfy/x99uEvw92G3Pwd8R5Jf5mxe3x7yZPPv4/Ybc6H3arN1ONZRp2q9Ul7F7C7ncKdqtL2P2uwO5c8XmLYfeaOhd2Xwau30YIvQTLbwos15QFwbL2E4Hl+iJgub4Ey0uwvATLM8GyNh8sazdT7WAaLK8uv1EvwfK7BZa1JVh+V8Byrvj8KGBZTh6LxHXRaRGb+IXfFEfau87pa+vC3hdVbXv7thkGs9h7lzgsiYH0w2qWKEWd2XRdgFDsIWbhl9Adi560i61eJ8QcqKapVgdr1bpSWzcUrbpaX8W1mkHUqgkgkhtlz5+YiSHgbPZ4qNgkkHxZ9eSh1wGmRwWtiQBzRfYYCiIVPqvetlzPv8HaZPhLUA5jyqHAzTfY+2Hxg48PdW1NEEBATluXM25GBcUXj+4du2MNrYIvpJSo6mSNwL6PRgJYFt1BaHh75Bxgb8oClOr+r6CZiUeERayJYwQVPtZn71096+jYL+qYoilkzTAq5Rrpa+VqpbZerq9q1fLAUDFZ11bVWr3KXsuGxqGeWeSs4CRytGHJf4bR/wcBF4uYRTMAAA==</t>
+          <t>pzQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb1Qoih1vIFISioR6gKRjq28GMvdobTVcpbd2ZXEN/chMODaBYo6BpK2aR2gaBCgsR/SwrWD9r8Epuw89S/0zMzeSVpcxQ0UgIYBc85tzpw5c843izF673zgSKfYo7ZLbpTUJaUkYWK6lk2ObpQCv19Wq6X3dLR5bmJn3/CMAfZBWAItQtfPqX2jdOz7w3VZPjs7WzqrLLnekawpiirf3ml3zGM8MMo2ob5BTFyKtazLtUo6aliDHewbluEbQvNGqdVpLTWwbTaBtmMQ4wh7S/WA2gRTukl827cxZZoeNnzcaO58IBama0vVJRXJE/REsh7YjiXkMpKCHsrBtLhrD7CuKZpSVmplTemqq+tadb2iLKnLyoeRYiyI2gb1O9g7tU1O6PjGYMjVlZqmqKtataIgeaoQ2EoCoKM9xzrApzbFVgM7Di0UETncwA3Th1UXCya4l9INDV3dhW3PGB53bd/BRdW3XA+bEKgrzb2Lz/a8MH7dYRu43WPb80dNY1TY1k2Kvb0hi0YxVR01XeJvONjzbw5hU7EFew4M3fcCjOQZzESpaVMTftskwJbeNxyaVsow0S3XO6FDw8S7cGBlZuOMOK5hQWb5NvVtkyYGJjho33OHYBJmr7uOtQVmQxenMGLTLQIxZvPWXfckbz3LRDwJeDrApg4MPxKfoKPOsXu2R5xRJ+hR07N72GrWI+mpPMSOXqjdCKjvDsCLhIQELUUZwR84ankyamLTHhjOvgNRpHoFrGQIaCPw3b7tN1wnGJA4nDkqugUr6uLzeIXxGO3B7hIWdJe0SCQvwjyVlVU4cM/iOScZPAgp8gY1oySbZOSFm0CLtm+Sw3eErXLLdqATpPciRc1mRecYY39qSggOYkVvi/UWvT7aDQY9OF89OGSnfFaK5ISPIE8h2cEvXYF+UeZ/u4qyzv+CHzEbbRJrtlzERDBdai5dBV6OhGBNTt0xyAlQb9n+8e5GtJYpHCQiMFN+kofg6A4dY8TJcZTSNNQiphNYWFSEFunzFGW+iU2dyUYTpDaccR0ZZNQdDaECU3vdhx83StCT16nvQdcv6aYbEN8bsdKB5FD0Mh0a9AifwHDm1ul7+FcBgI3RVkDMhmvNP5slonOT2P78HrqBJ+rh/Co8eqwyBrSJWY3hVX9ufbPImqhXSHxA8MAltjl/tCHIzHvrCguh0alKacgzcquJ+0bgAJzxoRkdJX0mR0Yb9CQvkyahm54TlQqdgUUKaNG0BksmtFmGiJZMd8AIMoC0Wx0kp+UZVjDxJjlqG+QogG4cH8A8PS5UrJF0PYNQtpy4+eZq1nQhFB1oAQp0ccr3Ah4xccpd4CI5J4e6eDB0PcPZgcDYW+H+hMgCmvaO4R+HI2gCDjajIMuJaqyV9Sxy/DIxXs3FMtjJCOtJjsiF2FoELk1kEhpiq9yB/HUahmP3PFF+op43jQcblsCoqFCxxRWEVNEewN0E2tT7eMQAazII6Txl1YghEphVHL1zsFzTVpSVFYAAbIz4irfdU18CtIgBTUllqWucSz+XWsSyT20rMBz4CckHKxPhCWt1Ic20DtqKCiF3YQP8zFKyAtCQj2yos5OCMSdR0A+x4TmjlKBYYts1Qe7i0X/GL/548eif44/+Wn79xW/H95/895tPXz3/8tWLF4Iq1iikUdfoOZh71K3XakplGRIsJiEWVZmDRyswfU47POSYMR6j8JLDB43NVmO7XeeFJCZG6qLoyuz+NHKDZNgRq+AT8b2UoxQQIno3KkzhOMNNFXGd3WdOcVY6zZ+lKGLx+uXfXr/8+0ztMGAJGlHX1mplVbsUrMCdUJ2Qi8EKuyeK20F4C1WXy8pKWdNSwjkZdACXabgMxHFqWXpFVdbg7qmocRG34iyeJpRnhZa6xpGc0xOkhgAQcQqkxxGTZ34XUz9mi7OQGoQ5+o/fvHn6cUYqjG5IyVoB53ijZ5PJ0YCb3j3oSp29mweNTam72WF5kvBScsL4W4TD2eMDlUkqQuCU/0zChH1AkUpwZyhJbl/ChnksjeAopg5iJtmmUcVEVzSZ93Lbc4Oh2JGUQkKdIhmXk6kaU4oN5/F4TlSdhDVFXPg6/tfX0xTChTQTyKcf7NSlAYnzktNQhiNIKX54aj/596vn91hxe/a78fNfZyyE88Q3Z8hzOE3pYZz2UPLCRpOjoFsdHswT5U6qsYREdtXYd23iU11d5reMcIRAVWXW+L+oNYBexw3zeAE9R0G/MOjmuR8ebH0XyVkC+Dk0oM26ye0sJogansT1uz99dvGHry8eP3tz78vx/S/GDx6/fvnnN189Eafu4uNnFw+/Cqt8vhFwX9idT6A/iX9BMCV2GiXWtKVv7/5eIq4vAdaQAl6Rvr37ScoYc5SjksQyYLnYkawLE6JpZaYnpVyJfcjoxSqi8zdYC6vEEmETc4e2mUzyYZmZYueOM37S6pYDiiUXYNRPYSVZ4UR5Xr1QRbTU/VVFU7WQK7xhS+gZNBX6bcftAYyIGPyKnhPJaL1dIZHl82239+ob7UREOLHnWXCjV9h3BvYDtWiEJqP0SlGACyjPDBz2JWVCbJKFol+p0iWHnyT6GxYredMv8BkJ1Ag8T6AgEn7L7gRDQL7Rh6vZfP41LwV2dwUwTcPfZNxqZvkwTnGh+WXZjMD5vByFLFGaWpR9/RDYdZeFJhkCL/MFEMIRfq4W6AqQJPZkVms2Pc/1phachBOJ7QBshioiJxGPZWQ2pYDYVrJXESEqcu8Kaq+qM6H2ZYD6OsLmBUB+VwB5RZkTIGs/EECuzQOQawuAvADIC4A8FSCrswGyeifVDiYBcrWyAMgLgPyjAsjqAiBfZ4CcKzjXGSBXMwD5A8MJsAT7iC3JJuxbckChjU/DyjNFrwdsfvPkwavnn44//2x8/y/ju98skPO7Qs615fmQs1L9YZCzVp0DOQuhBXJeIOfrhJzb7x/MQM4R563I+eLx0+/uPRh/9Gz88Mn44ecXTx99TwitzYbQ2p1Uw5iE0NoCQi8g9I8LQmsLCH2dIXSu4PxfILScPASJa6HbxA72C78XjrR33NMr68LeF1Vt0T3HCoNZ7C1LHJbEQPrRNEuUos5seB7gJ/bIsvAr57ZNTlrFVq9bVsVSlNUVFa8s91crPU3tVWtVrYYVxaoYfUCQ3Ch72sRMDABks4dBxSYB1JhVTx5xHRjkqKA1EWCuyB46QaT4gQwLezxGW7ZH/dusU4a/BOUwphwKDH2bPRUWP/j4UNdWBQEE5PRkcsbrqL744n2967TtgV3wMZQSFaGsEUiD4VCAzKIbCj1vF58DBE5ZgGrd+yX0M/FesIg1caqgyMf6ka1O0CtsTo6U94HPEutq2psW4LKra/PH6rbzPRzgyOuqJlqE2kfHftF91dbWKriKtbLWN83yMgzK0I17Zcvor6mK0q9YKxp7Vxwah+5g47OCk7CeYlO4YBTXk3P/3Uj/H3sOFO+nNAAA</t>
         </r>
       </text>
     </comment>
@@ -413,17 +413,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Govt Revenue - Tax ; Individual Income</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Govt Revenue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>Value Added in Industry</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Govt Revenue</t>
         </is>
       </c>
     </row>
@@ -489,17 +489,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>LKR mn</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
         </is>
       </c>
     </row>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B8" s="3">
+        <v>310901701</v>
+      </c>
+      <c r="C8" s="3">
+        <v>310901801</v>
+      </c>
+      <c r="D8" s="3">
         <v>310902601</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310901801</v>
       </c>
     </row>
     <row r="9">
@@ -571,17 +571,17 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>SR4825055</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>SR4825071</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>SR4825076</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825055</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825071</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -612,89 +612,89 @@
         </is>
       </c>
       <c r="B12" s="4">
+        <v>36130</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18598</v>
+      </c>
+      <c r="D12" s="4">
         <v>31017</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="D12" s="4">
-        <v>18598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
         <v>35765</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
         <v>112011</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="5">
         <v>36130</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
         <v>129477</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="5">
         <v>36495</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
         <v>143412</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="5">
         <v>36861</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <v>167493</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="5">
         <v>37226</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
         <v>179558</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="5">
         <v>37591</v>
       </c>
       <c r="B18" s="6">
+        <v>767.73</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
         <v>199063</v>
       </c>
-      <c r="C18" s="6">
-        <v>767.73</v>
-      </c>
-      <c r="D18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="5">
         <v>37956</v>
       </c>
       <c r="B19" s="6">
+        <v>727.63</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2171525</v>
+      </c>
+      <c r="D19" s="6">
         <v>221016</v>
-      </c>
-      <c r="C19" s="6">
-        <v>727.63</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2171525</v>
       </c>
     </row>
     <row r="20">
@@ -702,13 +702,13 @@
         <v>38322</v>
       </c>
       <c r="B20" s="6">
+        <v>922.91</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2639647</v>
+      </c>
+      <c r="D20" s="6">
         <v>256572</v>
-      </c>
-      <c r="C20" s="6">
-        <v>922.91</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2639647</v>
       </c>
     </row>
     <row r="21">
@@ -716,13 +716,13 @@
         <v>38687</v>
       </c>
       <c r="B21" s="6">
+        <v>1126.49</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3164929</v>
+      </c>
+      <c r="D21" s="6">
         <v>286765</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1126.49</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3164929</v>
       </c>
     </row>
     <row r="22">
@@ -730,87 +730,142 @@
         <v>39052</v>
       </c>
       <c r="B22" s="6">
+        <v>1235.8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3876020</v>
+      </c>
+      <c r="D22" s="6">
         <v>323560</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1235.8</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3876020</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
         <v>39417</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>1482.71</v>
+      </c>
       <c r="C23" s="6">
-        <v>1482.71</v>
-      </c>
-      <c r="D23" s="6">
         <v>5132178</v>
       </c>
+      <c r="D23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>39783</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6">
+        <v>1598.61</v>
+      </c>
       <c r="C24" s="6">
-        <v>1598.61</v>
-      </c>
-      <c r="D24" s="6">
         <v>6133035</v>
       </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="5">
         <v>40148</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>1639.54</v>
+      </c>
       <c r="C25" s="6">
-        <v>1639.54</v>
-      </c>
-      <c r="D25" s="6">
         <v>6851830</v>
       </c>
+      <c r="D25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="5">
         <v>40513</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6">
+        <v>2026.83</v>
+      </c>
       <c r="C26" s="6">
-        <v>2026.83</v>
-      </c>
-      <c r="D26" s="6">
         <v>8310151</v>
       </c>
+      <c r="D26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="5">
         <v>40878</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6">
+        <v>1667.1</v>
+      </c>
       <c r="C27" s="6">
-        <v>1667.1</v>
-      </c>
-      <c r="D27" s="6">
         <v>10374001</v>
       </c>
+      <c r="D27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="5">
         <v>41244</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6">
+      <c r="C28" s="6">
         <v>866666</v>
       </c>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>28</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>28</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>28</EndRow>
+          <EndCol>4</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F621B2-21D4-4A7C-A443-95C1AE8E616F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_89.xlsx
+++ b/Testdata/TC_89.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pzQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb1Qoih1vIFISioR6gKRjq28GMvdobTVcpbd2ZXEN/chMODaBYo6BpK2aR2gaBCgsR/SwrWD9r8Epuw89S/0zMzeSVpcxQ0UgIYBc85tzpw5c843izF673zgSKfYo7ZLbpTUJaUkYWK6lk2ObpQCv19Wq6X3dLR5bmJn3/CMAfZBWAItQtfPqX2jdOz7w3VZPjs7WzqrLLnekawpiirf3ml3zGM8MMo2ob5BTFyKtazLtUo6aliDHewbluEbQvNGqdVpLTWwbTaBtmMQ4wh7S/WA2gRTukl827cxZZoeNnzcaO58IBama0vVJRXJE/REsh7YjiXkMpKCHsrBtLhrD7CuKZpSVmplTemqq+tadb2iLKnLyoeRYiyI2gb1O9g7tU1O6PjGYMjVlZqmqKtataIgeaoQ2EoCoKM9xzrApzbFVgM7Di0UETncwA3Th1UXCya4l9INDV3dhW3PGB53bd/BRdW3XA+bEKgrzb2Lz/a8MH7dYRu43WPb80dNY1TY1k2Kvb0hi0YxVR01XeJvONjzbw5hU7EFew4M3fcCjOQZzESpaVMTftskwJbeNxyaVsow0S3XO6FDw8S7cGBlZuOMOK5hQWb5NvVtkyYGJjho33OHYBJmr7uOtQVmQxenMGLTLQIxZvPWXfckbz3LRDwJeDrApg4MPxKfoKPOsXu2R5xRJ+hR07N72GrWI+mpPMSOXqjdCKjvDsCLhIQELUUZwR84ankyamLTHhjOvgNRpHoFrGQIaCPw3b7tN1wnGJA4nDkqugUr6uLzeIXxGO3B7hIWdJe0SCQvwjyVlVU4cM/iOScZPAgp8gY1oySbZOSFm0CLtm+Sw3eErXLLdqATpPciRc1mRecYY39qSggOYkVvi/UWvT7aDQY9OF89OGSnfFaK5ISPIE8h2cEvXYF+UeZ/u4qyzv+CHzEbbRJrtlzERDBdai5dBV6OhGBNTt0xyAlQb9n+8e5GtJYpHCQiMFN+kofg6A4dY8TJcZTSNNQiphNYWFSEFunzFGW+iU2dyUYTpDaccR0ZZNQdDaECU3vdhx83StCT16nvQdcv6aYbEN8bsdKB5FD0Mh0a9AifwHDm1ul7+FcBgI3RVkDMhmvNP5slonOT2P78HrqBJ+rh/Co8eqwyBrSJWY3hVX9ufbPImqhXSHxA8MAltjl/tCHIzHvrCguh0alKacgzcquJ+0bgAJzxoRkdJX0mR0Yb9CQvkyahm54TlQqdgUUKaNG0BksmtFmGiJZMd8AIMoC0Wx0kp+UZVjDxJjlqG+QogG4cH8A8PS5UrJF0PYNQtpy4+eZq1nQhFB1oAQp0ccr3Ah4xccpd4CI5J4e6eDB0PcPZgcDYW+H+hMgCmvaO4R+HI2gCDjajIMuJaqyV9Sxy/DIxXs3FMtjJCOtJjsiF2FoELk1kEhpiq9yB/HUahmP3PFF+op43jQcblsCoqFCxxRWEVNEewN0E2tT7eMQAazII6Txl1YghEphVHL1zsFzTVpSVFYAAbIz4irfdU18CtIgBTUllqWucSz+XWsSyT20rMBz4CckHKxPhCWt1Ic20DtqKCiF3YQP8zFKyAtCQj2yos5OCMSdR0A+x4TmjlKBYYts1Qe7i0X/GL/548eif44/+Wn79xW/H95/895tPXz3/8tWLF4Iq1iikUdfoOZh71K3XakplGRIsJiEWVZmDRyswfU47POSYMR6j8JLDB43NVmO7XeeFJCZG6qLoyuz+NHKDZNgRq+AT8b2UoxQQIno3KkzhOMNNFXGd3WdOcVY6zZ+lKGLx+uXfXr/8+0ztMGAJGlHX1mplVbsUrMCdUJ2Qi8EKuyeK20F4C1WXy8pKWdNSwjkZdACXabgMxHFqWXpFVdbg7qmocRG34iyeJpRnhZa6xpGc0xOkhgAQcQqkxxGTZ34XUz9mi7OQGoQ5+o/fvHn6cUYqjG5IyVoB53ijZ5PJ0YCb3j3oSp29mweNTam72WF5kvBScsL4W4TD2eMDlUkqQuCU/0zChH1AkUpwZyhJbl/ChnksjeAopg5iJtmmUcVEVzSZ93Lbc4Oh2JGUQkKdIhmXk6kaU4oN5/F4TlSdhDVFXPg6/tfX0xTChTQTyKcf7NSlAYnzktNQhiNIKX54aj/596vn91hxe/a78fNfZyyE88Q3Z8hzOE3pYZz2UPLCRpOjoFsdHswT5U6qsYREdtXYd23iU11d5reMcIRAVWXW+L+oNYBexw3zeAE9R0G/MOjmuR8ebH0XyVkC+Dk0oM26ye0sJogansT1uz99dvGHry8eP3tz78vx/S/GDx6/fvnnN189Eafu4uNnFw+/Cqt8vhFwX9idT6A/iX9BMCV2GiXWtKVv7/5eIq4vAdaQAl6Rvr37ScoYc5SjksQyYLnYkawLE6JpZaYnpVyJfcjoxSqi8zdYC6vEEmETc4e2mUzyYZmZYueOM37S6pYDiiUXYNRPYSVZ4UR5Xr1QRbTU/VVFU7WQK7xhS+gZNBX6bcftAYyIGPyKnhPJaL1dIZHl82239+ob7UREOLHnWXCjV9h3BvYDtWiEJqP0SlGACyjPDBz2JWVCbJKFol+p0iWHnyT6GxYredMv8BkJ1Ag8T6AgEn7L7gRDQL7Rh6vZfP41LwV2dwUwTcPfZNxqZvkwTnGh+WXZjMD5vByFLFGaWpR9/RDYdZeFJhkCL/MFEMIRfq4W6AqQJPZkVms2Pc/1phachBOJ7QBshioiJxGPZWQ2pYDYVrJXESEqcu8Kaq+qM6H2ZYD6OsLmBUB+VwB5RZkTIGs/EECuzQOQawuAvADIC4A8FSCrswGyeifVDiYBcrWyAMgLgPyjAsjqAiBfZ4CcKzjXGSBXMwD5A8MJsAT7iC3JJuxbckChjU/DyjNFrwdsfvPkwavnn44//2x8/y/ju98skPO7Qs615fmQs1L9YZCzVp0DOQuhBXJeIOfrhJzb7x/MQM4R563I+eLx0+/uPRh/9Gz88Mn44ecXTx99TwitzYbQ2p1Uw5iE0NoCQi8g9I8LQmsLCH2dIXSu4PxfILScPASJa6HbxA72C78XjrR33NMr68LeF1Vt0T3HCoNZ7C1LHJbEQPrRNEuUos5seB7gJ/bIsvAr57ZNTlrFVq9bVsVSlNUVFa8s91crPU3tVWtVrYYVxaoYfUCQ3Ch72sRMDABks4dBxSYB1JhVTx5xHRjkqKA1EWCuyB46QaT4gQwLezxGW7ZH/dusU4a/BOUwphwKDH2bPRUWP/j4UNdWBQEE5PRkcsbrqL744n2967TtgV3wMZQSFaGsEUiD4VCAzKIbCj1vF58DBE5ZgGrd+yX0M/FesIg1caqgyMf6ka1O0CtsTo6U94HPEutq2psW4LKra/PH6rbzPRzgyOuqJlqE2kfHftF91dbWKriKtbLWN83yMgzK0I17Zcvor6mK0q9YKxp7Vxwah+5g47OCk7CeYlO4YBTXk3P/3Uj/H3sOFO+nNAAA</t>
+          <t>RTMAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb2QlCh1vIFISgoRSjJEOrbyYgx3h9JWy1l2L5L45jwEBly7QFHHQNI2rQMUDQI09kNauHbQ/pfAlJ2n/oWemdk7SYvrOoEN0DBgzrnNmTNnzvlmMUbvnQ9t6ZS4nuXQKyV1RSlJhBqOadGjK6XAH5TV1dJ7Oto6N4h9Fbt4SHwQlkCLehvnnnWldOz7ow1ZPjs7WzmrrDjukawpiirf2O10jWMyxGWLej6mBinFWublWiUdNc3hLvGxiX0sNK+U2t32SpNYRgtou5jiI+KuNALPosTztqhv+RbxmKZLsE+ard0PxcJ0bWV1RUXyFD2RbASWbQq5jKSgh3IwLelZQ6Jrilovq1pZWeupykalslGrrSjVtY8ixVgQdbDnd4l7ahmc0PXxcMTVVU1ZU5VKpVZD8kwhsJUEQEf7tnlATi2PmE1i216hiMjhBm4aPqy6WDAVJKd0Q0Ov78KOi0fHPcu3SVH1bcclBgTqtebeI2f7bhi/3qgD3N6x5frjFh4XtnXNI+7+iEWjmKqOWg71N23i+tdGsKnEhD0Hhu67AUHyHGai1LI8A35bNCCmPsC2l1bKMNF1xz3xRtgge3BgZWbjjNoONiGzfMvzLcNLDExx0FXXGYFJmL3h2OY2mA1dnMGITbcpxJjN23Cck7z1LBPxJODpAJs6xH4kPkVH3WPnbJ/a427Q9wzX6hOz1YikZ/IQO3qhdjPwfGcIXiQkJGgpyhj+wFHLk1GLGNYQ21dtiKKnV8BKhoA2A98ZWH7TsYMhjcOZo6LrsKIeOY9XGI/RPuwuZUF3aJtG8iLMM1lZhQPnLJ5zmsGDkCJvekaUZNOMvHALaNH2TXP4jrBVbls2dIL0XqSo2azoHhPiz0wJwUGs6G2z3qI3xnvBsA/nqw+H7JTP6iE54SPIU0h28EtXoF+U+d+eomzwv+BHzEZb1JwvFzERTJeaS1eBlyMhWJPdsDE9Aep1yz/e24zWMoODRATmyk/zEBzdkY3HnBxHKU1DbWrYgUlERWjTAU9R5pvY1LlsNEXqwBnXEabj3ngEFdizNnz4caUEPXnD813o+iXdcALqu2NWOpAcil6m4wV9yifA9sI6A5f8OgCwMd4OqNF0zMVnM0V0rlHLX9xDJ3BFPVxchUePVcbAaxFWY3jVX1jfKLImzy0kPqRk6FDLWDzaEGTmvfkaC/GiU5XSkOfkVosMcGADnPGhGR0lfSZHRpveSV4mTULXXDsqFToDix6gRcMcrhjQZhkiWjGcISPIANKud5GclmdYwSBb9KiD6VEA3Tg+gHl6XKhYI+m5mHpsOXHzzdWs2UIoOtACFOjilO8HPGLilDvARXJODvXIcOS42N6FwFjb4f6EyAKa9i72j8MRNAGbGFGQ5UQ11sp6Fjl+mRiv5mIZ7GSE9SRH5EJsLQKXJjIJDbFV7kL+2k1sW31XlJ+o583iwYYlMCoqVGxxBSFVtAdwN4E29QEZM8CaDEI6T1k1YogEZhVH7x5U61pNWVsFCMDGiK/4Q2wHRNo0TWJKFpXa1AR44AJMEPEIi/OrRdNCaDsqdXySTfAkS8kKQMs9sqCSTgvGnERBPyTYtccpQbGIjmOA3MuHd58/+Xzy5ReTO3+Z3PpOrECwUA/3bcKn7zXqdaVShXyJSYgFSeZY0AwMn9MODzkEjMcovLPwQXOr3dzpNHhdiImRuqihMrsOjZ0gGXaFy3wivjVytKNCRO9FdSYcZ7ipmqyz68kpyUqn+fMURSxePPvbi2d/n6sdBiwBF+p6vcrvf5dgD7jTrk7JxdiDXfsE2I8uldWyUitrWko4J4MO4G4M2D6OU9vUK6qyrmirihrXZDPO0VlCeVZoqYeP5JyeIDUFHohTID2OmDzNe8TzY7ZI/NRABPHiH795+ejTjFQY3ZCStQLO8b7NJpOjATe9d9CTuvvXDppbUm+ry/Ik4aXkhPFXCIezx6cnk1SUBtj+hUQo+x4ileAKUJKcgUSwcSyN4dylTl0m2WZRxUSvaTLv5Y7rBCOxIymFhDpDMq4dMzVmVBbO4/GcKjEJa4a48HXyr29nKYQLaSUITu98cCANaZyXnIYyHEFK8cNT+9m/nz+5ffHg0Q+3704+eTy593By78uLR/czpsIJ4xsxJDwcq/Qwzn+ofWEDyVHQ9S6P6olyM9UwQiK7Qlx1LOp7ulbht4dwhEBVZdb4v6g9hB7GDfPAAT1HQe9jb+vcD0+4vofkLAH8HGFon05y64oJopgnAf7hT19c/OHbiwePX97+enLnq8ndBy+e/fnlNw/F8bv49PHFvW/Ccp/vCNwXdpcTqE7iXwYMiR1LiTVj6ftbv5eo40uAIaSAl6bvb32WMsYc5WgjsQwYLXYk68KUaFqZ6UkpV2IfMnqxiujoTdbLKrFE2M2ckWUkk3xUZqbYAeSMn7V75cAjkgPw6OewkqxworyoXqgieuvVNUVTtZArvGFL6GMvFfod2+ljW4oY/OqdE8lovVohkeXz7XT2G5udREQ4se+acFNX2PcD9gNFGJH1lrYXjaJUS1GAC0jOCGz2tWRKbJoVW07VMzn87DAA5AThnH1Jz0igZuC6AgfR8Ht1NxgBuo0+Ts3n8y92KUC7J8BnGuIm43Yry4dxigsdMctmBM7nNSpkiXrV9tgXDoFP91hokiHwMl/5IBzhJ2kBuU4t2BKZ1Z0t13XcmcUn4URiuwCNoaLIScRjGb6nAkabyV5FhKjgvSk4zb5pp+D0jnPqSwfklFCAymWph8+lXzKkbMEyoRnCT7jLkVnoelHNtwNsX9z/z+TpHy/u/3PyyV/LL7767eTOw/9+9/nzJ18/f/pUUJf4+03h7/X6YvhbVX8a/K2uLYC/hdASfy/x99uEvw92G3Pwd8R5Jf5mxe3x7yZPPv4/Ybc6H3arN1ONZRp2q9Ul7F7C7ncKdqtL2P2uwO5c8XmLYfeaOhd2Xwau30YIvQTLbwos15QFwbL2E4Hl+iJgub4Ey0uwvATLM8GyNh8sazdT7WAaLK8uv1EvwfK7BZa1JVh+V8Byrvj8KGBZTh6LxHXRaRGb+IXfFEfau87pa+vC3hdVbXv7thkGs9h7lzgsiYH0w2qWKEWd2XRdgFDsIWbhl9Adi560i61eJ8QcqKapVgdr1bpSWzcUrbpaX8W1mkHUqgkgkhtlz5+YiSHgbPZ4qNgkkHxZ9eSh1wGmRwWtiQBzRfYYCiIVPqvetlzPv8HaZPhLUA5jyqHAzTfY+2Hxg48PdW1NEEBATluXM25GBcUXj+4du2MNrYIvpJSo6mSNwL6PRgJYFt1BaHh75Bxgb8oClOr+r6CZiUeERayJYwQVPtZn71096+jYL+qYoilkzTAq5Rrpa+VqpbZerq9q1fLAUDFZ11bVWr3KXsuGxqGeWeSs4CRytGHJf4bR/wcBF4uYRTMAAA==</t>
         </r>
       </text>
     </comment>
@@ -413,17 +413,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Value Added in Industry</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>Govt Revenue - Tax ; Individual Income</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Govt Revenue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Value Added in Industry</t>
         </is>
       </c>
     </row>
@@ -489,17 +489,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>LKR mn</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
           <t>RMB mn</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>RMB mn</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>LKR mn</t>
         </is>
       </c>
     </row>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B8" s="3">
+        <v>310902601</v>
+      </c>
+      <c r="C8" s="3">
         <v>310901701</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>310901801</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310902601</v>
       </c>
     </row>
     <row r="9">
@@ -571,17 +571,17 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>SR4825076</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>SR4825055</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>SR4825071</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825076</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -612,89 +612,89 @@
         </is>
       </c>
       <c r="B12" s="4">
+        <v>31017</v>
+      </c>
+      <c r="C12" s="4">
         <v>36130</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>18598</v>
-      </c>
-      <c r="D12" s="4">
-        <v>31017</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
         <v>35765</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6">
+        <v>112011</v>
+      </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>112011</v>
-      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="5">
         <v>36130</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6">
+        <v>129477</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>129477</v>
-      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="5">
         <v>36495</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6">
+        <v>143412</v>
+      </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>143412</v>
-      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="5">
         <v>36861</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6">
+        <v>167493</v>
+      </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <v>167493</v>
-      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="5">
         <v>37226</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6">
+        <v>179558</v>
+      </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6">
-        <v>179558</v>
-      </c>
+      <c r="D17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="5">
         <v>37591</v>
       </c>
       <c r="B18" s="6">
+        <v>199063</v>
+      </c>
+      <c r="C18" s="6">
         <v>767.73</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>199063</v>
-      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="5">
         <v>37956</v>
       </c>
       <c r="B19" s="6">
+        <v>221016</v>
+      </c>
+      <c r="C19" s="6">
         <v>727.63</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <v>2171525</v>
-      </c>
-      <c r="D19" s="6">
-        <v>221016</v>
       </c>
     </row>
     <row r="20">
@@ -702,13 +702,13 @@
         <v>38322</v>
       </c>
       <c r="B20" s="6">
+        <v>256572</v>
+      </c>
+      <c r="C20" s="6">
         <v>922.91</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="6">
         <v>2639647</v>
-      </c>
-      <c r="D20" s="6">
-        <v>256572</v>
       </c>
     </row>
     <row r="21">
@@ -716,13 +716,13 @@
         <v>38687</v>
       </c>
       <c r="B21" s="6">
+        <v>286765</v>
+      </c>
+      <c r="C21" s="6">
         <v>1126.49</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <v>3164929</v>
-      </c>
-      <c r="D21" s="6">
-        <v>286765</v>
       </c>
     </row>
     <row r="22">
@@ -730,142 +730,87 @@
         <v>39052</v>
       </c>
       <c r="B22" s="6">
+        <v>323560</v>
+      </c>
+      <c r="C22" s="6">
         <v>1235.8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <v>3876020</v>
-      </c>
-      <c r="D22" s="6">
-        <v>323560</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
         <v>39417</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
         <v>1482.71</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <v>5132178</v>
       </c>
-      <c r="D23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>39783</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
         <v>1598.61</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <v>6133035</v>
       </c>
-      <c r="D24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="5">
         <v>40148</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
         <v>1639.54</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="6">
         <v>6851830</v>
       </c>
-      <c r="D25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="5">
         <v>40513</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6">
         <v>2026.83</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="6">
         <v>8310151</v>
       </c>
-      <c r="D26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="5">
         <v>40878</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
         <v>1667.1</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="6">
         <v>10374001</v>
       </c>
-      <c r="D27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="5">
         <v>41244</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="6">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
         <v>866666</v>
       </c>
-      <c r="D28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>28</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>28</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>28</EndRow>
-          <EndCol>4</EndCol>
-          <Name>Value Added in Industry</Name>
-          <DisplayName>Value Added in Industry</DisplayName>
-          <SeriesId>310902601</SeriesId>
-          <Code>SR4825076</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F621B2-21D4-4A7C-A443-95C1AE8E616F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>